--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/利息支出.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/利息支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>45.08166</v>
-      </c>
-      <c r="C2" t="n">
-        <v>106.75439</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.04894</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02165</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.1182</v>
-      </c>
-      <c r="G2" t="n">
-        <v>138.29598</v>
-      </c>
-      <c r="H2" t="n">
-        <v>32.12824</v>
-      </c>
-      <c r="I2" t="n">
-        <v>38.56412</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.02193</v>
-      </c>
-      <c r="K2" t="n">
-        <v>27.86125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.17428</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.35505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>69.73287999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>66.74391</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.787979999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>20.64028</v>
-      </c>
-      <c r="R2" t="n">
-        <v>12.56531</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.13924</v>
-      </c>
-      <c r="T2" t="n">
-        <v>19.07353</v>
-      </c>
-      <c r="U2" t="n">
-        <v>19.52235</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.10076</v>
-      </c>
-      <c r="W2" t="n">
-        <v>37.7305</v>
-      </c>
-      <c r="X2" t="n">
-        <v>308.36698</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>73.68129999999999</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>75.93074</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>13.6864</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>64.05821</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>40.70407</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>106.99336</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9.75787</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1841.396</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>43.53405</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>39.04139</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>103.40139</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>6.93223</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>24.27773</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>56.91143</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>33.12645</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>132.38178</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>3.51046</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>40.73734</v>
-      </c>
-      <c r="C3" t="n">
-        <v>92.20406</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.857710000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02699</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.594810000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>122.62782</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23.07625</v>
-      </c>
-      <c r="I3" t="n">
-        <v>39.88829</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.55134</v>
-      </c>
-      <c r="K3" t="n">
-        <v>26.28645</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.33286</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.46832</v>
-      </c>
-      <c r="N3" t="n">
-        <v>67.01293</v>
-      </c>
-      <c r="O3" t="n">
-        <v>51.45192</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.22198</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>19.13196</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11.65312</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.94706</v>
-      </c>
-      <c r="T3" t="n">
-        <v>19.33427</v>
-      </c>
-      <c r="U3" t="n">
-        <v>30.58865</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.29522</v>
-      </c>
-      <c r="W3" t="n">
-        <v>44.67699</v>
-      </c>
-      <c r="X3" t="n">
-        <v>370.80185</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>69.68899</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>70.78686</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11.56519</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>58.21313</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>29.14433</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>92.97323</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10.82395</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1757.89303</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>46.06107</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>33.95025</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>91.61969999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.98823</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21.52177</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51.2181</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29.53075</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>106.25003</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.94774</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>39.21179</v>
-      </c>
-      <c r="C4" t="n">
-        <v>89.36553000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.18473</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05314</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.80914</v>
-      </c>
-      <c r="G4" t="n">
-        <v>130.31363</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23.77962</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42.51342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.5539</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.07865</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.09393</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-2.20071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>62.45772</v>
-      </c>
-      <c r="O4" t="n">
-        <v>55.33483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.728590000000001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>19.07991</v>
-      </c>
-      <c r="R4" t="n">
-        <v>11.13558</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.10031</v>
-      </c>
-      <c r="T4" t="n">
-        <v>19.22668</v>
-      </c>
-      <c r="U4" t="n">
-        <v>28.33946</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.94356</v>
-      </c>
-      <c r="W4" t="n">
-        <v>56.53149</v>
-      </c>
-      <c r="X4" t="n">
-        <v>396.24903</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>68.33544999999999</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>67.83114999999999</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11.51191</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>55.53287</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>23.79516</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>91.90398</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13.8854</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1793.40958</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>48.18943</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32.3951</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>87.45715</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>7.51928</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26.60993</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51.35575</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>28.89273</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>114.91118</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3.90925</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
